--- a/public/assets/sample/ESAB_product_import_template.xlsx
+++ b/public/assets/sample/ESAB_product_import_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shabeersha\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shabeersha\ESAB Distributer\WWW\esabdis\public\assets\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E5155D-4F22-4A5A-B413-8C71B2C768C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6BEE4-25FB-4D5D-AF81-44BC8F498BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A8F4457-DC83-4DFF-A072-01308D7F3568}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Distributor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <r>
       <t xml:space="preserve">GIN
@@ -189,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -213,19 +207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -287,23 +268,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,36 +605,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190487A4-2ED5-418A-9994-22FA4CF4AAED}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -670,20 +647,14 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
